--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed4/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.28870000000001</v>
+        <v>-12.18599999999999</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.97140000000001</v>
+        <v>-11.4692</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.8622</v>
+        <v>-12.7052</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.33479999999999</v>
+        <v>-7.093399999999992</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -584,13 +584,13 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.360000000000005</v>
+        <v>8.393200000000007</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.687200000000011</v>
+        <v>-8.749500000000006</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.73480000000001</v>
+        <v>-13.2294</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.39720000000002</v>
+        <v>-14.26690000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>5.241500000000003</v>
+        <v>5.017300000000005</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.373300000000008</v>
+        <v>9.385000000000009</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.889100000000001</v>
+        <v>4.658400000000003</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.8462</v>
+        <v>5.8859</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.11890000000001</v>
+        <v>-12.72100000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.049800000000007</v>
+        <v>-8.212500000000004</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
